--- a/xlsx/精英_intext.xlsx
+++ b/xlsx/精英_intext.xlsx
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_精英</t>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_精英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E5%AF%8C%E5%B7%AE%E8%B7%9D</t>
   </si>
   <si>
-    <t>貧富差距</t>
+    <t>贫富差距</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
   </si>
   <si>
-    <t>華爾街</t>
+    <t>华尔街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>精英主義</t>
+    <t>精英主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
